--- a/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051425.xlsx
+++ b/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D166C22-AF55-E84E-9F8F-EED695854612}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FF73A3D-D81F-1C44-9A7D-AE169E77E452}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2100" windowWidth="18060" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="128">
   <si>
     <t>Cell</t>
   </si>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -858,12 +858,8 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>

--- a/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051425.xlsx
+++ b/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_051425.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Albuwell Data Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FF73A3D-D81F-1C44-9A7D-AE169E77E452}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14709F39-555F-EC44-918B-944CF8E0A989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2100" windowWidth="18060" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,21 +209,12 @@
     <t>E1</t>
   </si>
   <si>
-    <t>3920_Base</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
-    <t>3932_Base</t>
-  </si>
-  <si>
     <t>E3</t>
   </si>
   <si>
-    <t>3936_Base</t>
-  </si>
-  <si>
     <t>E4</t>
   </si>
   <si>
@@ -254,21 +245,12 @@
     <t>F1</t>
   </si>
   <si>
-    <t>3920_Final</t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
-    <t>3932_Final</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
-    <t>3936_Final</t>
-  </si>
-  <si>
     <t>F4</t>
   </si>
   <si>
@@ -368,58 +350,76 @@
     <t>H12</t>
   </si>
   <si>
-    <t>3921_Base</t>
-  </si>
-  <si>
-    <t>3933_Base</t>
-  </si>
-  <si>
-    <t>3937_Base</t>
-  </si>
-  <si>
-    <t>3921_Final</t>
-  </si>
-  <si>
-    <t>3933_Final</t>
-  </si>
-  <si>
-    <t>3937_Final</t>
-  </si>
-  <si>
-    <t>3922_Base</t>
-  </si>
-  <si>
-    <t>3934_Base</t>
-  </si>
-  <si>
-    <t>3938_Base</t>
-  </si>
-  <si>
-    <t>3922_Final</t>
-  </si>
-  <si>
-    <t>3934_Final</t>
-  </si>
-  <si>
-    <t>3938_Final</t>
-  </si>
-  <si>
-    <t>3923_Base</t>
-  </si>
-  <si>
-    <t>3935_Base</t>
-  </si>
-  <si>
-    <t>3939_Base</t>
-  </si>
-  <si>
-    <t>3923_Final</t>
-  </si>
-  <si>
-    <t>3935_Final</t>
-  </si>
-  <si>
-    <t>3939_Final</t>
+    <t>20 Base</t>
+  </si>
+  <si>
+    <t>32 Base</t>
+  </si>
+  <si>
+    <t>36 Base</t>
+  </si>
+  <si>
+    <t>20 Final</t>
+  </si>
+  <si>
+    <t>32 Final</t>
+  </si>
+  <si>
+    <t>36 Final</t>
+  </si>
+  <si>
+    <t>21 Base</t>
+  </si>
+  <si>
+    <t>33 Base</t>
+  </si>
+  <si>
+    <t>37 Base</t>
+  </si>
+  <si>
+    <t>21 Final</t>
+  </si>
+  <si>
+    <t>33 Final</t>
+  </si>
+  <si>
+    <t>37 Final</t>
+  </si>
+  <si>
+    <t>22 Base</t>
+  </si>
+  <si>
+    <t>34 Base</t>
+  </si>
+  <si>
+    <t>38 Base</t>
+  </si>
+  <si>
+    <t>22 Final</t>
+  </si>
+  <si>
+    <t>34 Final</t>
+  </si>
+  <si>
+    <t>38 Final</t>
+  </si>
+  <si>
+    <t>23 Base</t>
+  </si>
+  <si>
+    <t>35 Base</t>
+  </si>
+  <si>
+    <t>39 Base</t>
+  </si>
+  <si>
+    <t>23 Final</t>
+  </si>
+  <si>
+    <t>35 Final</t>
+  </si>
+  <si>
+    <t>39 Final</t>
   </si>
 </sst>
 </file>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -869,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -1107,7 +1107,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>116</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>116</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>117</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>117</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>118</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>118</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>119</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>119</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>120</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>120</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>121</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>121</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>122</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>122</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>123</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>123</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>124</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>124</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>125</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>125</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>126</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>126</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>127</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>127</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
